--- a/DateBase/orders/name001_2024-9-25.xlsx
+++ b/DateBase/orders/name001_2024-9-25.xlsx
@@ -445,6 +445,9 @@
       <c r="A2" t="str">
         <v>1</v>
       </c>
+      <c r="C2" t="str">
+        <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/name001_2024-9-25.xlsx
+++ b/DateBase/orders/name001_2024-9-25.xlsx
@@ -448,6 +448,9 @@
       <c r="C2" t="str">
         <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F2" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -505,8 +508,8 @@
       <c r="F2" t="str">
         <v>0.00</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-25.xlsx
+++ b/DateBase/orders/name001_2024-9-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -449,12 +449,17 @@
         <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F2" t="str">
-        <v>10</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -509,7 +514,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010</v>
+        <v>01020</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-25.xlsx
+++ b/DateBase/orders/name001_2024-9-25.xlsx
@@ -456,6 +456,9 @@
       <c r="A3" t="str">
         <v>2</v>
       </c>
+      <c r="C3" t="str">
+        <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/name001_2024-9-25.xlsx
+++ b/DateBase/orders/name001_2024-9-25.xlsx
@@ -459,6 +459,9 @@
       <c r="C3" t="str">
         <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F3" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -517,7 +520,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01020</v>
+        <v>01023</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-25.xlsx
+++ b/DateBase/orders/name001_2024-9-25.xlsx
@@ -460,7 +460,7 @@
         <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F3" t="str">
-        <v>3</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -520,7 +520,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01023</v>
+        <v>0102</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-25.xlsx
+++ b/DateBase/orders/name001_2024-9-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,12 +460,17 @@
         <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -520,7 +525,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0102</v>
+        <v>01021010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-25.xlsx
+++ b/DateBase/orders/name001_2024-9-25.xlsx
@@ -467,6 +467,9 @@
       <c r="C4" t="str">
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F4" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -525,7 +528,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01021010</v>
+        <v>01021012</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-25.xlsx
+++ b/DateBase/orders/name001_2024-9-25.xlsx
@@ -468,7 +468,7 @@
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F4" t="str">
-        <v>2</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -528,7 +528,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01021012</v>
+        <v>0102101203</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-25.xlsx
+++ b/DateBase/orders/name001_2024-9-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -471,9 +471,14 @@
         <v>203</v>
       </c>
     </row>
+    <row r="5">
+      <c r="C5" t="str">
+        <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -528,7 +533,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0102101203</v>
+        <v>01021012030</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-25.xlsx
+++ b/DateBase/orders/name001_2024-9-25.xlsx
@@ -475,6 +475,9 @@
       <c r="C5" t="str">
         <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F5" t="str">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -533,7 +536,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01021012030</v>
+        <v>0102101203102</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-25.xlsx
+++ b/DateBase/orders/name001_2024-9-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -479,9 +479,14 @@
         <v>102</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -536,7 +541,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0102101203102</v>
+        <v>01021012031020</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-25.xlsx
+++ b/DateBase/orders/name001_2024-9-25.xlsx
@@ -483,6 +483,9 @@
       <c r="A6" t="str">
         <v>3</v>
       </c>
+      <c r="C6" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/name001_2024-9-25.xlsx
+++ b/DateBase/orders/name001_2024-9-25.xlsx
@@ -486,6 +486,9 @@
       <c r="C6" t="str">
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F6" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -544,7 +547,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01021012031020</v>
+        <v>01021012031021</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-25.xlsx
+++ b/DateBase/orders/name001_2024-9-25.xlsx
@@ -448,8 +448,23 @@
       <c r="C2" t="str">
         <v>6_粉边洋桔梗_Pink Edge Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="E2" t="str">
+        <v>0.8</v>
+      </c>
       <c r="F2" t="str">
         <v>102</v>
+      </c>
+      <c r="G2" t="str">
+        <v>12</v>
+      </c>
+      <c r="H2" t="str">
+        <v>13.21</v>
+      </c>
+      <c r="K2">
+        <v>13.21</v>
+      </c>
+      <c r="L2">
+        <v>1347.42</v>
       </c>
     </row>
     <row r="3">
@@ -459,24 +474,69 @@
       <c r="C3" t="str">
         <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="E3" t="str">
+        <v>0.6</v>
+      </c>
       <c r="F3" t="str">
         <v>101</v>
+      </c>
+      <c r="G3" t="str">
+        <v>13</v>
+      </c>
+      <c r="H3" t="str">
+        <v>21.32</v>
+      </c>
+      <c r="K3">
+        <v>21.32</v>
+      </c>
+      <c r="L3">
+        <v>2153.32</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="E4" t="str">
+        <v>0.8</v>
+      </c>
       <c r="F4" t="str">
         <v>203</v>
+      </c>
+      <c r="G4" t="str">
+        <v>14</v>
+      </c>
+      <c r="H4" t="str">
+        <v>321.21</v>
+      </c>
+      <c r="K4">
+        <v>321.21</v>
+      </c>
+      <c r="L4">
+        <v>65205.63</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="str">
         <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="E5" t="str">
+        <v>0.6</v>
+      </c>
       <c r="F5" t="str">
         <v>102</v>
+      </c>
+      <c r="G5" t="str">
+        <v>15</v>
+      </c>
+      <c r="H5" t="str">
+        <v>21.32</v>
+      </c>
+      <c r="K5">
+        <v>21.32</v>
+      </c>
+      <c r="L5">
+        <v>2174.64</v>
       </c>
     </row>
     <row r="6">
@@ -486,8 +546,23 @@
       <c r="C6" t="str">
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="E6" t="str">
+        <v>0.8</v>
+      </c>
       <c r="F6" t="str">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="G6" t="str">
+        <v>16</v>
+      </c>
+      <c r="H6" t="str">
+        <v>21.31</v>
+      </c>
+      <c r="K6">
+        <v>21.31</v>
+      </c>
+      <c r="L6">
+        <v>2365.41</v>
       </c>
     </row>
   </sheetData>
@@ -547,7 +622,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01021012031021</v>
+        <v>0102101203102111</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-9-25.xlsx
+++ b/DateBase/orders/name001_2024-9-25.xlsx
@@ -461,10 +461,10 @@
         <v>13.21</v>
       </c>
       <c r="K2">
-        <v>13.21</v>
+        <v>15.899822294022618</v>
       </c>
       <c r="L2">
-        <v>1347.42</v>
+        <v>1621.781873990307</v>
       </c>
     </row>
     <row r="3">
@@ -487,10 +487,10 @@
         <v>21.32</v>
       </c>
       <c r="K3">
-        <v>21.32</v>
+        <v>24.00982229402262</v>
       </c>
       <c r="L3">
-        <v>2153.32</v>
+        <v>2424.9920516962848</v>
       </c>
     </row>
     <row r="4">
@@ -510,10 +510,10 @@
         <v>321.21</v>
       </c>
       <c r="K4">
-        <v>321.21</v>
+        <v>323.8998222940226</v>
       </c>
       <c r="L4">
-        <v>65205.63</v>
+        <v>65751.66392568659</v>
       </c>
     </row>
     <row r="5">
@@ -533,10 +533,10 @@
         <v>21.32</v>
       </c>
       <c r="K5">
-        <v>21.32</v>
+        <v>24.00982229402262</v>
       </c>
       <c r="L5">
-        <v>2174.64</v>
+        <v>2449.001873990307</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         <v>21.31</v>
       </c>
       <c r="K6">
-        <v>21.31</v>
+        <v>23.999822294022614</v>
       </c>
       <c r="L6">
-        <v>2365.41</v>
+        <v>2663.9802746365103</v>
       </c>
     </row>
   </sheetData>
@@ -604,22 +604,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0.00</v>
+        <v>111.00</v>
       </c>
       <c r="B2" t="str">
-        <v>0.00</v>
+        <v>1111.00</v>
       </c>
       <c r="C2" t="str">
-        <v>0.00</v>
+        <v>111.00</v>
       </c>
       <c r="D2" t="str">
-        <v>0.00</v>
+        <v>111.00</v>
       </c>
       <c r="E2" t="str">
-        <v>0.00</v>
+        <v>221.00</v>
       </c>
       <c r="F2" t="str">
-        <v>0.00</v>
+        <v>1665.00</v>
       </c>
       <c r="G2" t="str">
         <v>0102101203102111</v>

--- a/DateBase/orders/name001_2024-9-25.xlsx
+++ b/DateBase/orders/name001_2024-9-25.xlsx
@@ -574,7 +574,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -601,6 +601,9 @@
       <c r="G1" t="str">
         <v>TotalNumber</v>
       </c>
+      <c r="H1" t="str">
+        <v>Money</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -624,10 +627,13 @@
       <c r="G2" t="str">
         <v>0102101203102111</v>
       </c>
+      <c r="H2" t="str">
+        <v>USD</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DateBase/orders/name001_2024-9-25.xlsx
+++ b/DateBase/orders/name001_2024-9-25.xlsx
@@ -628,7 +628,7 @@
         <v>0102101203102111</v>
       </c>
       <c r="H2" t="str">
-        <v>USD</v>
+        <v>CNY</v>
       </c>
     </row>
   </sheetData>
